--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
@@ -1766,7 +1766,10 @@
         <v>-0.01239555844019874</v>
       </c>
       <c r="I45">
-        <v>0.5679120330803951</v>
+        <v>0.5011245128056051</v>
+      </c>
+      <c r="J45">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1792,7 +1795,10 @@
         <v>-0.05124389339762181</v>
       </c>
       <c r="H46">
-        <v>0.5520662240532093</v>
+        <v>0.4852787037784192</v>
+      </c>
+      <c r="I46">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1815,7 +1821,10 @@
         <v>-0.01550102094271821</v>
       </c>
       <c r="G47">
-        <v>0.5207385776695821</v>
+        <v>0.4539510573947921</v>
+      </c>
+      <c r="H47">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1835,10 +1844,13 @@
         <v>0.01671636730576187</v>
       </c>
       <c r="F48">
-        <v>0.5331267034972994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.4663391832225094</v>
+      </c>
+      <c r="G48">
+        <v>0.2534447081011285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1852,10 +1864,13 @@
         <v>-0.09976821105225223</v>
       </c>
       <c r="E49">
-        <v>0.5482319751491519</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.4814444548743619</v>
+      </c>
+      <c r="F49">
+        <v>0.2766837437271186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1866,10 +1881,13 @@
         <v>-0.08623093880433602</v>
       </c>
       <c r="D50">
-        <v>0.4852590561591889</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.4184715358843989</v>
+      </c>
+      <c r="E50">
+        <v>0.2867219094086165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1877,20 +1895,29 @@
         <v>0.167618103061072</v>
       </c>
       <c r="C51">
-        <v>0.5845771063412253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.5177895860664353</v>
+      </c>
+      <c r="D51">
+        <v>0.1751453671933744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.6286367975806744</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.5618492773058843</v>
+      </c>
+      <c r="C52">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
@@ -489,28 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.3538576297953431</v>
+        <v>0.1723813810668744</v>
       </c>
       <c r="C2">
-        <v>0.4918198143377789</v>
+        <v>0.3499908675985048</v>
       </c>
       <c r="D2">
-        <v>0.02616020827444671</v>
+        <v>0.6691348296765106</v>
       </c>
       <c r="E2">
-        <v>0.7056676249657313</v>
+        <v>0.8300803312953138</v>
       </c>
       <c r="F2">
-        <v>0.9099227904698376</v>
+        <v>0.5122925844322204</v>
       </c>
       <c r="G2">
-        <v>0.4696485924218674</v>
+        <v>0.3934798787210216</v>
       </c>
       <c r="H2">
-        <v>0.3872693173527261</v>
+        <v>0.6635913754756477</v>
       </c>
       <c r="I2">
-        <v>0.6785207862006621</v>
+        <v>0.5073009638889382</v>
+      </c>
+      <c r="J2">
+        <v>0.6562794631732567</v>
+      </c>
+      <c r="K2">
+        <v>0.3761651213703216</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5142477939707875</v>
+        <v>0.3724188472315134</v>
       </c>
       <c r="C3">
-        <v>0.02876374783689539</v>
+        <v>0.6717383692389594</v>
       </c>
       <c r="D3">
-        <v>0.683599939311716</v>
+        <v>0.8080126456412985</v>
       </c>
       <c r="E3">
-        <v>0.9039408101654827</v>
+        <v>0.5063106041278653</v>
       </c>
       <c r="F3">
-        <v>0.4643053422394562</v>
+        <v>0.3881366285386105</v>
       </c>
       <c r="G3">
-        <v>0.3769007839823598</v>
+        <v>0.6532228421052815</v>
       </c>
       <c r="H3">
-        <v>0.6700434640770384</v>
+        <v>0.4988236417653144</v>
+      </c>
+      <c r="I3">
+        <v>0.6485071548664459</v>
+      </c>
+      <c r="J3">
+        <v>0.367541147837353</v>
+      </c>
+      <c r="K3">
+        <v>0.2069891273051463</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.05018831929411549</v>
+        <v>0.6931629406961795</v>
       </c>
       <c r="C4">
-        <v>0.8037777881109285</v>
+        <v>0.9281904944405108</v>
       </c>
       <c r="D4">
-        <v>0.8147464657516995</v>
+        <v>0.4171162597140823</v>
       </c>
       <c r="E4">
-        <v>0.4345783383908784</v>
+        <v>0.3584096246900327</v>
       </c>
       <c r="F4">
-        <v>0.3855269040122699</v>
+        <v>0.6618489621351915</v>
       </c>
       <c r="G4">
-        <v>0.6441032906516032</v>
+        <v>0.4728834683398792</v>
       </c>
       <c r="H4">
-        <v>0.4725811863294772</v>
+        <v>0.6257285918382185</v>
       </c>
       <c r="I4">
-        <v>0.631351887111854</v>
+        <v>0.3539231126887352</v>
       </c>
       <c r="J4">
-        <v>0.3514560234789169</v>
+        <v>0.1884683301199705</v>
       </c>
       <c r="K4">
-        <v>0.1878533956106533</v>
+        <v>0.0637708202161355</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.761457155790539</v>
+        <v>0.8858698621201214</v>
       </c>
       <c r="C5">
-        <v>0.7855419918959663</v>
+        <v>0.3879117858583491</v>
       </c>
       <c r="D5">
-        <v>0.4315577385859573</v>
+        <v>0.3553890248851115</v>
       </c>
       <c r="E5">
-        <v>0.3666656204007895</v>
+        <v>0.6429876785237111</v>
       </c>
       <c r="F5">
-        <v>0.623772159586399</v>
+        <v>0.4525523372746749</v>
       </c>
       <c r="G5">
-        <v>0.4580510308952294</v>
+        <v>0.6111984364039706</v>
       </c>
       <c r="H5">
-        <v>0.6147108416195859</v>
+        <v>0.3372820671964672</v>
       </c>
       <c r="I5">
-        <v>0.3338721780501667</v>
+        <v>0.1708844846912203</v>
       </c>
       <c r="J5">
-        <v>0.1713795120806105</v>
+        <v>0.04729693668609269</v>
+      </c>
+      <c r="K5">
+        <v>0.5643005784802194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.125739732513876</v>
+        <v>0.7281095264762592</v>
       </c>
       <c r="C6">
-        <v>0.5069288003698943</v>
+        <v>0.4307600866690486</v>
       </c>
       <c r="D6">
-        <v>0.1755723340877904</v>
+        <v>0.451894392210712</v>
       </c>
       <c r="E6">
-        <v>0.6484660721731321</v>
+        <v>0.4772462498614081</v>
       </c>
       <c r="F6">
-        <v>0.4674304344515254</v>
+        <v>0.6205778399602666</v>
       </c>
       <c r="G6">
-        <v>0.5599000430081948</v>
+        <v>0.2824712685850762</v>
       </c>
       <c r="H6">
-        <v>0.3149780871614969</v>
+        <v>0.1519903938025505</v>
       </c>
       <c r="I6">
-        <v>0.1565155112655648</v>
+        <v>0.03243293587104695</v>
+      </c>
+      <c r="J6">
+        <v>0.5355888678508487</v>
+      </c>
+      <c r="K6">
+        <v>0.3304428394308724</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9576236723601449</v>
+        <v>0.8814549586592991</v>
       </c>
       <c r="C7">
-        <v>0.2226830363001488</v>
+        <v>0.4990050944230704</v>
       </c>
       <c r="D7">
-        <v>0.4081828413823239</v>
+        <v>0.2369630190705999</v>
       </c>
       <c r="E7">
-        <v>0.5033755155173882</v>
+        <v>0.6565229210261294</v>
       </c>
       <c r="F7">
-        <v>0.557849285568602</v>
+        <v>0.2804205111454833</v>
       </c>
       <c r="G7">
-        <v>0.2384098477254667</v>
+        <v>0.07542215436652031</v>
       </c>
       <c r="H7">
-        <v>0.1291161168902814</v>
+        <v>0.005033541495763572</v>
+      </c>
+      <c r="I7">
+        <v>0.5092998176531234</v>
+      </c>
+      <c r="J7">
+        <v>0.2870455487175398</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,31 +696,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5350086232236873</v>
+        <v>0.8113306813466088</v>
       </c>
       <c r="C8">
-        <v>0.5414715811178482</v>
+        <v>0.3702517588061242</v>
       </c>
       <c r="D8">
-        <v>0.3242970937011966</v>
+        <v>0.4774444992099378</v>
       </c>
       <c r="E8">
-        <v>0.5860435243391693</v>
+        <v>0.3086147499160505</v>
       </c>
       <c r="F8">
-        <v>0.2744351589178602</v>
+        <v>0.1114474655589138</v>
       </c>
       <c r="G8">
-        <v>0.09157454668606776</v>
+        <v>-0.03250802870845004</v>
       </c>
       <c r="H8">
-        <v>-0.01239555844019874</v>
+        <v>0.5037574785657621</v>
       </c>
       <c r="I8">
-        <v>0.5011245128056051</v>
-      </c>
-      <c r="J8">
-        <v>0.2858677898194339</v>
+        <v>0.2912208776562884</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -698,28 +725,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7770620722256893</v>
+        <v>0.6058422499139654</v>
       </c>
       <c r="C9">
-        <v>0.4089758345755062</v>
+        <v>0.5621232400842474</v>
       </c>
       <c r="D9">
-        <v>0.4404431577054521</v>
+        <v>0.1630143832823334</v>
       </c>
       <c r="E9">
-        <v>0.2843889017771028</v>
+        <v>0.1214012084181564</v>
       </c>
       <c r="F9">
-        <v>0.1069397163856127</v>
+        <v>-0.01714285900890511</v>
       </c>
       <c r="G9">
-        <v>-0.05124389339762181</v>
+        <v>0.464909143608339</v>
       </c>
       <c r="H9">
-        <v>0.4852787037784192</v>
-      </c>
-      <c r="I9">
-        <v>0.2775335613519331</v>
+        <v>0.2753750686291025</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,25 +751,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.720000021056889</v>
+        <v>0.8731474265656303</v>
       </c>
       <c r="C10">
-        <v>0.5575319321166473</v>
+        <v>0.2801031576935286</v>
       </c>
       <c r="D10">
-        <v>0.121924760327536</v>
+        <v>-0.04106293303141043</v>
       </c>
       <c r="E10">
-        <v>0.1358986668508143</v>
+        <v>0.01181609145629647</v>
       </c>
       <c r="F10">
-        <v>-0.01550102094271821</v>
+        <v>0.5006520160632426</v>
       </c>
       <c r="G10">
-        <v>0.4539510573947921</v>
-      </c>
-      <c r="H10">
-        <v>0.2743085116504074</v>
+        <v>0.2440474222454754</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -753,22 +774,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8043571095207618</v>
+        <v>0.526928335097643</v>
       </c>
       <c r="C11">
-        <v>0.1395806278654255</v>
+        <v>-0.02340706549352092</v>
       </c>
       <c r="D11">
-        <v>0.04127642773981979</v>
+        <v>-0.08280614765469801</v>
       </c>
       <c r="E11">
-        <v>0.01671636730576187</v>
+        <v>0.5328694043117227</v>
       </c>
       <c r="F11">
-        <v>0.4663391832225094</v>
-      </c>
-      <c r="G11">
-        <v>0.2534447081011285</v>
+        <v>0.2564355480731927</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -776,19 +794,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3792569872816374</v>
+        <v>0.216269293922691</v>
       </c>
       <c r="C12">
-        <v>0.1263006712090333</v>
+        <v>0.002218095814515486</v>
       </c>
       <c r="D12">
-        <v>-0.09976821105225223</v>
+        <v>0.4163848259537086</v>
       </c>
       <c r="E12">
-        <v>0.4814444548743619</v>
-      </c>
-      <c r="F12">
-        <v>0.2766837437271186</v>
+        <v>0.2715408197250452</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -796,16 +811,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2911607482431205</v>
+        <v>0.1670781728486028</v>
       </c>
       <c r="C13">
-        <v>-0.08623093880433602</v>
+        <v>0.4299220982016248</v>
       </c>
       <c r="D13">
-        <v>0.4184715358843989</v>
-      </c>
-      <c r="E13">
-        <v>0.2867219094086165</v>
+        <v>0.2085679007350822</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -813,13 +825,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.167618103061072</v>
+        <v>0.6837711400670328</v>
       </c>
       <c r="C14">
-        <v>0.5177895860664353</v>
-      </c>
-      <c r="D14">
-        <v>0.1751453671933744</v>
+        <v>0.3078859509171186</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -827,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5618492773058843</v>
-      </c>
-      <c r="C15">
-        <v>0.1965658720679752</v>
+        <v>0.3519456421565676</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1723813810668744</v>
+        <v>-0.3538576297953431</v>
       </c>
       <c r="C2">
-        <v>0.3499908675985048</v>
+        <v>0.4918198143377789</v>
       </c>
       <c r="D2">
-        <v>0.6691348296765106</v>
+        <v>0.02616020827444671</v>
       </c>
       <c r="E2">
-        <v>0.8300803312953138</v>
+        <v>0.7056676249657313</v>
       </c>
       <c r="F2">
-        <v>0.5122925844322204</v>
+        <v>0.9099227904698376</v>
       </c>
       <c r="G2">
-        <v>0.3934798787210216</v>
+        <v>0.4696485924218674</v>
       </c>
       <c r="H2">
-        <v>0.6635913754756477</v>
+        <v>0.3872693173527261</v>
       </c>
       <c r="I2">
-        <v>0.5073009638889382</v>
+        <v>0.6785207862006621</v>
       </c>
       <c r="J2">
-        <v>0.6562794631732567</v>
+        <v>0.5031320576645155</v>
       </c>
       <c r="K2">
-        <v>0.3761651213703216</v>
+        <v>0.6535938957934404</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3724188472315134</v>
+        <v>0.5142477939707875</v>
       </c>
       <c r="C3">
-        <v>0.6717383692389594</v>
+        <v>0.02876374783689539</v>
       </c>
       <c r="D3">
-        <v>0.8080126456412985</v>
+        <v>0.683599939311716</v>
       </c>
       <c r="E3">
-        <v>0.5063106041278653</v>
+        <v>0.9039408101654827</v>
       </c>
       <c r="F3">
-        <v>0.3881366285386105</v>
+        <v>0.4643053422394562</v>
       </c>
       <c r="G3">
-        <v>0.6532228421052815</v>
+        <v>0.3769007839823598</v>
       </c>
       <c r="H3">
-        <v>0.4988236417653144</v>
+        <v>0.6700434640770384</v>
       </c>
       <c r="I3">
-        <v>0.6485071548664459</v>
+        <v>0.4953597493577047</v>
       </c>
       <c r="J3">
-        <v>0.367541147837353</v>
+        <v>0.6449699222604717</v>
       </c>
       <c r="K3">
-        <v>0.2069891273051463</v>
+        <v>0.3699768206640927</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.6931629406961795</v>
+        <v>0.05018831929411549</v>
       </c>
       <c r="C4">
-        <v>0.9281904944405108</v>
+        <v>0.8037777881109285</v>
       </c>
       <c r="D4">
-        <v>0.4171162597140823</v>
+        <v>0.8147464657516995</v>
       </c>
       <c r="E4">
-        <v>0.3584096246900327</v>
+        <v>0.4345783383908784</v>
       </c>
       <c r="F4">
-        <v>0.6618489621351915</v>
+        <v>0.3855269040122699</v>
       </c>
       <c r="G4">
-        <v>0.4728834683398792</v>
+        <v>0.6441032906516032</v>
       </c>
       <c r="H4">
-        <v>0.6257285918382185</v>
+        <v>0.4725811863294772</v>
       </c>
       <c r="I4">
-        <v>0.3539231126887352</v>
+        <v>0.631351887111854</v>
       </c>
       <c r="J4">
-        <v>0.1884683301199705</v>
+        <v>0.3514560234789169</v>
       </c>
       <c r="K4">
-        <v>0.0637708202161355</v>
+        <v>0.1878533956106533</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.8858698621201214</v>
+        <v>0.761457155790539</v>
       </c>
       <c r="C5">
-        <v>0.3879117858583491</v>
+        <v>0.7855419918959663</v>
       </c>
       <c r="D5">
-        <v>0.3553890248851115</v>
+        <v>0.4315577385859573</v>
       </c>
       <c r="E5">
-        <v>0.6429876785237111</v>
+        <v>0.3666656204007895</v>
       </c>
       <c r="F5">
-        <v>0.4525523372746749</v>
+        <v>0.623772159586399</v>
       </c>
       <c r="G5">
-        <v>0.6111984364039706</v>
+        <v>0.4580510308952294</v>
       </c>
       <c r="H5">
-        <v>0.3372820671964672</v>
+        <v>0.6147108416195859</v>
       </c>
       <c r="I5">
-        <v>0.1708844846912203</v>
+        <v>0.3338721780501667</v>
       </c>
       <c r="J5">
-        <v>0.04729693668609269</v>
+        <v>0.1713795120806105</v>
       </c>
       <c r="K5">
-        <v>0.5643005784802194</v>
+        <v>0.04814754147425859</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7281095264762592</v>
+        <v>1.125739732513876</v>
       </c>
       <c r="C6">
-        <v>0.4307600866690486</v>
+        <v>0.5069288003698943</v>
       </c>
       <c r="D6">
-        <v>0.451894392210712</v>
+        <v>0.1755723340877904</v>
       </c>
       <c r="E6">
-        <v>0.4772462498614081</v>
+        <v>0.6484660721731321</v>
       </c>
       <c r="F6">
-        <v>0.6205778399602666</v>
+        <v>0.4674304344515254</v>
       </c>
       <c r="G6">
-        <v>0.2824712685850762</v>
+        <v>0.5599000430081948</v>
       </c>
       <c r="H6">
-        <v>0.1519903938025505</v>
+        <v>0.3149780871614969</v>
       </c>
       <c r="I6">
-        <v>0.03243293587104695</v>
+        <v>0.1565155112655648</v>
       </c>
       <c r="J6">
-        <v>0.5355888678508487</v>
+        <v>0.01943583084488787</v>
       </c>
       <c r="K6">
-        <v>0.3304428394308724</v>
+        <v>0.5403464745801891</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +664,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.8814549586592991</v>
+        <v>0.9576236723601449</v>
       </c>
       <c r="C7">
-        <v>0.4990050944230704</v>
+        <v>0.2226830363001488</v>
       </c>
       <c r="D7">
-        <v>0.2369630190705999</v>
+        <v>0.4081828413823239</v>
       </c>
       <c r="E7">
-        <v>0.6565229210261294</v>
+        <v>0.5033755155173882</v>
       </c>
       <c r="F7">
-        <v>0.2804205111454833</v>
+        <v>0.557849285568602</v>
       </c>
       <c r="G7">
-        <v>0.07542215436652031</v>
+        <v>0.2384098477254667</v>
       </c>
       <c r="H7">
-        <v>0.005033541495763572</v>
+        <v>0.1291161168902814</v>
       </c>
       <c r="I7">
-        <v>0.5092998176531234</v>
+        <v>-0.006853219352837503</v>
       </c>
       <c r="J7">
-        <v>0.2870455487175398</v>
+        <v>0.4969491838668565</v>
+      </c>
+      <c r="K7">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +699,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.8113306813466088</v>
+        <v>0.5350086232236873</v>
       </c>
       <c r="C8">
-        <v>0.3702517588061242</v>
+        <v>0.5414715811178482</v>
       </c>
       <c r="D8">
-        <v>0.4774444992099378</v>
+        <v>0.3242970937011966</v>
       </c>
       <c r="E8">
-        <v>0.3086147499160505</v>
+        <v>0.5860435243391693</v>
       </c>
       <c r="F8">
-        <v>0.1114474655589138</v>
+        <v>0.2744351589178602</v>
       </c>
       <c r="G8">
-        <v>-0.03250802870845004</v>
+        <v>0.09157454668606776</v>
       </c>
       <c r="H8">
-        <v>0.5037574785657621</v>
+        <v>-0.01239555844019874</v>
       </c>
       <c r="I8">
-        <v>0.2912208776562884</v>
+        <v>0.5011245128056051</v>
+      </c>
+      <c r="J8">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,25 +731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6058422499139654</v>
+        <v>0.7770620722256893</v>
       </c>
       <c r="C9">
-        <v>0.5621232400842474</v>
+        <v>0.4089758345755062</v>
       </c>
       <c r="D9">
-        <v>0.1630143832823334</v>
+        <v>0.4404431577054521</v>
       </c>
       <c r="E9">
-        <v>0.1214012084181564</v>
+        <v>0.2843889017771028</v>
       </c>
       <c r="F9">
-        <v>-0.01714285900890511</v>
+        <v>0.1069397163856127</v>
       </c>
       <c r="G9">
-        <v>0.464909143608339</v>
+        <v>-0.05124389339762181</v>
       </c>
       <c r="H9">
-        <v>0.2753750686291025</v>
+        <v>0.4852787037784192</v>
+      </c>
+      <c r="I9">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +760,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.8731474265656303</v>
+        <v>0.720000021056889</v>
       </c>
       <c r="C10">
-        <v>0.2801031576935286</v>
+        <v>0.5575319321166473</v>
       </c>
       <c r="D10">
-        <v>-0.04106293303141043</v>
+        <v>0.121924760327536</v>
       </c>
       <c r="E10">
-        <v>0.01181609145629647</v>
+        <v>0.1358986668508143</v>
       </c>
       <c r="F10">
-        <v>0.5006520160632426</v>
+        <v>-0.01550102094271821</v>
       </c>
       <c r="G10">
-        <v>0.2440474222454754</v>
+        <v>0.4539510573947921</v>
+      </c>
+      <c r="H10">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +786,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.526928335097643</v>
+        <v>0.8043571095207618</v>
       </c>
       <c r="C11">
-        <v>-0.02340706549352092</v>
+        <v>0.1395806278654255</v>
       </c>
       <c r="D11">
-        <v>-0.08280614765469801</v>
+        <v>0.04127642773981979</v>
       </c>
       <c r="E11">
-        <v>0.5328694043117227</v>
+        <v>0.01671636730576187</v>
       </c>
       <c r="F11">
-        <v>0.2564355480731927</v>
+        <v>0.4663391832225094</v>
+      </c>
+      <c r="G11">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +809,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.216269293922691</v>
+        <v>0.3792569872816374</v>
       </c>
       <c r="C12">
-        <v>0.002218095814515486</v>
+        <v>0.1263006712090333</v>
       </c>
       <c r="D12">
-        <v>0.4163848259537086</v>
+        <v>-0.09976821105225223</v>
       </c>
       <c r="E12">
-        <v>0.2715408197250452</v>
+        <v>0.4814444548743619</v>
+      </c>
+      <c r="F12">
+        <v>0.2766837437271186</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,13 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1670781728486028</v>
+        <v>0.2911607482431205</v>
       </c>
       <c r="C13">
-        <v>0.4299220982016248</v>
+        <v>-0.08623093880433602</v>
       </c>
       <c r="D13">
-        <v>0.2085679007350822</v>
+        <v>0.4184715358843989</v>
+      </c>
+      <c r="E13">
+        <v>0.2867219094086165</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -825,10 +846,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6837711400670328</v>
+        <v>0.167618103061072</v>
       </c>
       <c r="C14">
-        <v>0.3078859509171186</v>
+        <v>0.5177895860664353</v>
+      </c>
+      <c r="D14">
+        <v>0.1751453671933744</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3519456421565676</v>
+        <v>0.5618492773058843</v>
+      </c>
+      <c r="C15">
+        <v>0.1965658720679752</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,34 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.3538576297953431</v>
+        <v>-0.3361236916881567</v>
       </c>
       <c r="C2">
-        <v>0.4918198143377789</v>
+        <v>-0.161792324790043</v>
       </c>
       <c r="D2">
-        <v>0.02616020827444671</v>
+        <v>0.7494991430432696</v>
       </c>
       <c r="E2">
-        <v>0.7056676249657313</v>
+        <v>0.9350076546302937</v>
       </c>
       <c r="F2">
-        <v>0.9099227904698376</v>
-      </c>
-      <c r="G2">
-        <v>0.4696485924218674</v>
-      </c>
-      <c r="H2">
-        <v>0.3872693173527261</v>
-      </c>
-      <c r="I2">
-        <v>0.6785207862006621</v>
-      </c>
-      <c r="J2">
-        <v>0.5031320576645155</v>
-      </c>
-      <c r="K2">
-        <v>0.6535938957934404</v>
+        <v>1.936408981338119</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5142477939707875</v>
+        <v>0.8386181271597886</v>
       </c>
       <c r="C3">
-        <v>0.02876374783689539</v>
+        <v>1.169501465421047</v>
       </c>
       <c r="D3">
-        <v>0.683599939311716</v>
+        <v>2.016510417653866</v>
       </c>
       <c r="E3">
-        <v>0.9039408101654827</v>
+        <v>5.165181926665497</v>
       </c>
       <c r="F3">
-        <v>0.4643053422394562</v>
+        <v>0.2071344251161799</v>
       </c>
       <c r="G3">
-        <v>0.3769007839823598</v>
+        <v>-0.1659720850064434</v>
       </c>
       <c r="H3">
-        <v>0.6700434640770384</v>
-      </c>
-      <c r="I3">
-        <v>0.4953597493577047</v>
-      </c>
-      <c r="J3">
-        <v>0.6449699222604717</v>
-      </c>
-      <c r="K3">
-        <v>0.3699768206640927</v>
+        <v>-0.317193988760077</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.05018831929411549</v>
+        <v>1.704388863080099</v>
       </c>
       <c r="C4">
-        <v>0.8037777881109285</v>
+        <v>4.896409795373818</v>
       </c>
       <c r="D4">
-        <v>0.8147464657516995</v>
+        <v>0.06741046337061751</v>
       </c>
       <c r="E4">
-        <v>0.4345783383908784</v>
+        <v>-0.2870310366050814</v>
       </c>
       <c r="F4">
-        <v>0.3855269040122699</v>
-      </c>
-      <c r="G4">
-        <v>0.6441032906516032</v>
-      </c>
-      <c r="H4">
-        <v>0.4725811863294772</v>
-      </c>
-      <c r="I4">
-        <v>0.631351887111854</v>
-      </c>
-      <c r="J4">
-        <v>0.3514560234789169</v>
-      </c>
-      <c r="K4">
-        <v>0.1878533956106533</v>
+        <v>-0.4170782520222345</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.761457155790539</v>
+        <v>-3.456122482624478</v>
       </c>
       <c r="C5">
-        <v>0.7855419918959663</v>
+        <v>-4.087364094756905</v>
       </c>
       <c r="D5">
-        <v>0.4315577385859573</v>
+        <v>-4.159273920471629</v>
       </c>
       <c r="E5">
-        <v>0.3666656204007895</v>
+        <v>-4.173293457170603</v>
       </c>
       <c r="F5">
-        <v>0.623772159586399</v>
+        <v>-5.615737528316993</v>
       </c>
       <c r="G5">
-        <v>0.4580510308952294</v>
+        <v>-4.437060640640235</v>
       </c>
       <c r="H5">
-        <v>0.6147108416195859</v>
-      </c>
-      <c r="I5">
-        <v>0.3338721780501667</v>
-      </c>
-      <c r="J5">
-        <v>0.1713795120806105</v>
-      </c>
-      <c r="K5">
-        <v>0.04814754147425859</v>
+        <v>-4.142729981772892</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.125739732513876</v>
+        <v>-0.3283867441069388</v>
       </c>
       <c r="C6">
-        <v>0.5069288003698943</v>
+        <v>-0.3961731764661903</v>
       </c>
       <c r="D6">
-        <v>0.1755723340877904</v>
+        <v>-1.880395044158431</v>
       </c>
       <c r="E6">
-        <v>0.6484660721731321</v>
+        <v>-0.6972885366275332</v>
       </c>
       <c r="F6">
-        <v>0.4674304344515254</v>
-      </c>
-      <c r="G6">
-        <v>0.5599000430081948</v>
-      </c>
-      <c r="H6">
-        <v>0.3149780871614969</v>
-      </c>
-      <c r="I6">
-        <v>0.1565155112655648</v>
-      </c>
-      <c r="J6">
-        <v>0.01943583084488787</v>
-      </c>
-      <c r="K6">
-        <v>0.5403464745801891</v>
+        <v>-0.3956772800786703</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9576236723601449</v>
+        <v>-1.974592605002166</v>
       </c>
       <c r="C7">
-        <v>0.2226830363001488</v>
+        <v>-0.7611786858969192</v>
       </c>
       <c r="D7">
-        <v>0.4081828413823239</v>
+        <v>-0.4475236213246998</v>
       </c>
       <c r="E7">
-        <v>0.5033755155173882</v>
+        <v>-1.60095113992024</v>
       </c>
       <c r="F7">
-        <v>0.557849285568602</v>
+        <v>-0.06071214603932712</v>
       </c>
       <c r="G7">
-        <v>0.2384098477254667</v>
+        <v>-0.3301409535777553</v>
       </c>
       <c r="H7">
-        <v>0.1291161168902814</v>
-      </c>
-      <c r="I7">
-        <v>-0.006853219352837503</v>
-      </c>
-      <c r="J7">
-        <v>0.4969491838668565</v>
-      </c>
-      <c r="K7">
-        <v>0.2970525035592049</v>
+        <v>0.2214746397603786</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5350086232236873</v>
+        <v>-0.1278195408837234</v>
       </c>
       <c r="C8">
-        <v>0.5414715811178482</v>
+        <v>-1.400444400388857</v>
       </c>
       <c r="D8">
-        <v>0.3242970937011966</v>
+        <v>0.08695924927729271</v>
       </c>
       <c r="E8">
-        <v>0.5860435243391693</v>
+        <v>-0.207196275323166</v>
       </c>
       <c r="F8">
-        <v>0.2744351589178602</v>
-      </c>
-      <c r="G8">
-        <v>0.09157454668606776</v>
-      </c>
-      <c r="H8">
-        <v>-0.01239555844019874</v>
-      </c>
-      <c r="I8">
-        <v>0.5011245128056051</v>
-      </c>
-      <c r="J8">
-        <v>0.2858677898194339</v>
+        <v>0.3329321255475683</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7770620722256893</v>
+        <v>0.5447147469754596</v>
       </c>
       <c r="C9">
-        <v>0.4089758345755062</v>
+        <v>0.001955153691105105</v>
       </c>
       <c r="D9">
-        <v>0.4404431577054521</v>
+        <v>0.4339574590591693</v>
       </c>
       <c r="E9">
-        <v>0.2843889017771028</v>
+        <v>0.1559537485280918</v>
       </c>
       <c r="F9">
-        <v>0.1069397163856127</v>
+        <v>0.2410754634991643</v>
       </c>
       <c r="G9">
-        <v>-0.05124389339762181</v>
+        <v>0.1347863954460349</v>
       </c>
       <c r="H9">
-        <v>0.4852787037784192</v>
-      </c>
-      <c r="I9">
-        <v>0.2775335613519331</v>
+        <v>0.6338877181444649</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.720000021056889</v>
+        <v>0.4178261858414339</v>
       </c>
       <c r="C10">
-        <v>0.5575319321166473</v>
+        <v>0.1320128381891874</v>
       </c>
       <c r="D10">
-        <v>0.121924760327536</v>
+        <v>0.2167499100690802</v>
       </c>
       <c r="E10">
-        <v>0.1358986668508143</v>
+        <v>0.1128318376506894</v>
       </c>
       <c r="F10">
-        <v>-0.01550102094271821</v>
-      </c>
-      <c r="G10">
-        <v>0.4539510573947921</v>
-      </c>
-      <c r="H10">
-        <v>0.2743085116504074</v>
+        <v>0.6140076662505021</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8043571095207618</v>
+        <v>0.2987028809941715</v>
       </c>
       <c r="C11">
-        <v>0.1395806278654255</v>
+        <v>0.1220291778826379</v>
       </c>
       <c r="D11">
-        <v>0.04127642773981979</v>
+        <v>0.5943001037495309</v>
       </c>
       <c r="E11">
-        <v>0.01671636730576187</v>
+        <v>0.8426663495950357</v>
       </c>
       <c r="F11">
-        <v>0.4663391832225094</v>
+        <v>-0.8843890704881969</v>
       </c>
       <c r="G11">
-        <v>0.2534447081011285</v>
+        <v>-0.2316442249927503</v>
+      </c>
+      <c r="H11">
+        <v>0.131645037661246</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3792569872816374</v>
+        <v>0.5654988129866392</v>
       </c>
       <c r="C12">
-        <v>0.1263006712090333</v>
+        <v>0.8405425659164625</v>
       </c>
       <c r="D12">
-        <v>-0.09976821105225223</v>
+        <v>-0.8771061057057743</v>
       </c>
       <c r="E12">
-        <v>0.4814444548743619</v>
+        <v>-0.2212277120495061</v>
       </c>
       <c r="F12">
-        <v>0.2766837437271186</v>
+        <v>0.1430861830955678</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2911607482431205</v>
+        <v>-0.9989882668015876</v>
       </c>
       <c r="C13">
-        <v>-0.08623093880433602</v>
+        <v>-0.31307288098283</v>
       </c>
       <c r="D13">
-        <v>0.4184715358843989</v>
+        <v>0.06321343652415951</v>
       </c>
       <c r="E13">
-        <v>0.2867219094086165</v>
+        <v>-0.8323569178484489</v>
+      </c>
+      <c r="F13">
+        <v>0.240154187874971</v>
+      </c>
+      <c r="G13">
+        <v>-0.3360291699081773</v>
+      </c>
+      <c r="H13">
+        <v>-0.54127534092662</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.167618103061072</v>
+        <v>0.1585282081815222</v>
       </c>
       <c r="C14">
-        <v>0.5177895860664353</v>
+        <v>-0.7540892131611641</v>
       </c>
       <c r="D14">
-        <v>0.1751453671933744</v>
+        <v>0.3107446784608449</v>
+      </c>
+      <c r="E14">
+        <v>-0.2689678476130288</v>
+      </c>
+      <c r="F14">
+        <v>-0.4758419697301518</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5618492773058843</v>
+        <v>0.5708672202635848</v>
       </c>
       <c r="C15">
-        <v>0.1965658720679752</v>
+        <v>-0.1280619160306041</v>
+      </c>
+      <c r="D15">
+        <v>-0.390397430094944</v>
+      </c>
+      <c r="E15">
+        <v>0.5623484475265214</v>
+      </c>
+      <c r="F15">
+        <v>-0.1862827769703213</v>
+      </c>
+      <c r="G15">
+        <v>-0.2099693877891357</v>
+      </c>
+      <c r="H15">
+        <v>-0.1892248457786991</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.5880056801767868</v>
+      </c>
+      <c r="C16">
+        <v>0.4383886238637034</v>
+      </c>
+      <c r="D16">
+        <v>-0.2776623976024654</v>
+      </c>
+      <c r="E16">
+        <v>-0.2869276062278247</v>
+      </c>
+      <c r="F16">
+        <v>-0.2597897169002801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.2102603443096386</v>
+      </c>
+      <c r="C17">
+        <v>-0.2120499133054097</v>
+      </c>
+      <c r="D17">
+        <v>-0.1816236201806256</v>
+      </c>
+      <c r="E17">
+        <v>-0.5437514435559043</v>
+      </c>
+      <c r="F17">
+        <v>0.1133900045823698</v>
+      </c>
+      <c r="G17">
+        <v>-0.01690728797492691</v>
+      </c>
+      <c r="H17">
+        <v>-0.1261762057981929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.1939803210945991</v>
+      </c>
+      <c r="C18">
+        <v>-0.5579424334817151</v>
+      </c>
+      <c r="D18">
+        <v>0.09844375035972808</v>
+      </c>
+      <c r="E18">
+        <v>-0.03216374626862839</v>
+      </c>
+      <c r="F18">
+        <v>-0.1415591146121002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.2707464529491325</v>
+      </c>
+      <c r="C19">
+        <v>0.06232838649038364</v>
+      </c>
+      <c r="D19">
+        <v>-0.08323367572495516</v>
+      </c>
+      <c r="E19">
+        <v>-0.9297582624152663</v>
+      </c>
+      <c r="F19">
+        <v>-0.357013373929053</v>
+      </c>
+      <c r="G19">
+        <v>-0.4440146383915445</v>
+      </c>
+      <c r="H19">
+        <v>-0.6636041934262084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.1777422226074639</v>
+      </c>
+      <c r="C20">
+        <v>-0.9662726614299468</v>
+      </c>
+      <c r="D20">
+        <v>-0.3668156737460341</v>
+      </c>
+      <c r="E20">
+        <v>-0.441522535107442</v>
+      </c>
+      <c r="F20">
+        <v>-0.6554532109500923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.2244109514860759</v>
+      </c>
+      <c r="C21">
+        <v>-0.3609463815409155</v>
+      </c>
+      <c r="D21">
+        <v>-0.6024388739472215</v>
+      </c>
+      <c r="E21">
+        <v>0.9508768341145255</v>
+      </c>
+      <c r="F21">
+        <v>-0.3897482266356107</v>
+      </c>
+      <c r="G21">
+        <v>1.048807121260573</v>
+      </c>
+      <c r="H21">
+        <v>-0.05255046847064687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.4245064810212553</v>
+      </c>
+      <c r="C22">
+        <v>1.037734429689356</v>
+      </c>
+      <c r="D22">
+        <v>-0.3468225008504117</v>
+      </c>
+      <c r="E22">
+        <v>1.070715795931569</v>
+      </c>
+      <c r="F22">
+        <v>-0.04069625057600418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1.048302449822014</v>
+      </c>
+      <c r="C23">
+        <v>-0.3380477122786401</v>
+      </c>
+      <c r="D23">
+        <v>1.078518199975304</v>
+      </c>
+      <c r="E23">
+        <v>-0.03338618974149576</v>
+      </c>
+      <c r="F23">
+        <v>-0.2491226352005299</v>
+      </c>
+      <c r="G23">
+        <v>0.3468183386966098</v>
+      </c>
+      <c r="H23">
+        <v>0.01990898967064902</v>
+      </c>
+      <c r="I23">
+        <v>0.7364974651863733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.4450221160943206</v>
+      </c>
+      <c r="C24">
+        <v>1.013258577037035</v>
+      </c>
+      <c r="D24">
+        <v>-0.07897678827447507</v>
+      </c>
+      <c r="E24">
+        <v>-0.2854533117167836</v>
+      </c>
+      <c r="F24">
+        <v>0.3148482439627</v>
+      </c>
+      <c r="G24">
+        <v>-0.01000723788286506</v>
+      </c>
+      <c r="H24">
+        <v>0.7075488269872576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>1.047131774781531</v>
+      </c>
+      <c r="C25">
+        <v>-0.0762236280176779</v>
+      </c>
+      <c r="D25">
+        <v>-0.2970422425675381</v>
+      </c>
+      <c r="E25">
+        <v>0.2967268299057859</v>
+      </c>
+      <c r="F25">
+        <v>-0.03110735124562009</v>
+      </c>
+      <c r="G25">
+        <v>0.6850904903007842</v>
+      </c>
+      <c r="H25">
+        <v>2.380517493453967</v>
+      </c>
+      <c r="I25">
+        <v>9.2245623784926</v>
+      </c>
+      <c r="J25">
+        <v>-8.326183261142877</v>
+      </c>
+      <c r="K25">
+        <v>-0.6168281780219288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.333499057523928</v>
+      </c>
+      <c r="C26">
+        <v>-0.4283215140497347</v>
+      </c>
+      <c r="D26">
+        <v>0.2233711486320382</v>
+      </c>
+      <c r="E26">
+        <v>-0.07834862591279368</v>
+      </c>
+      <c r="F26">
+        <v>0.6496436059220461</v>
+      </c>
+      <c r="G26">
+        <v>2.35039660686013</v>
+      </c>
+      <c r="H26">
+        <v>9.19684659447498</v>
+      </c>
+      <c r="I26">
+        <v>-8.352812953902838</v>
+      </c>
+      <c r="J26">
+        <v>-0.642967415097735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.4715856280184577</v>
+      </c>
+      <c r="C27">
+        <v>0.1950297526051633</v>
+      </c>
+      <c r="D27">
+        <v>-0.1030246514249161</v>
+      </c>
+      <c r="E27">
+        <v>0.6253569729452143</v>
+      </c>
+      <c r="F27">
+        <v>2.325773310604686</v>
+      </c>
+      <c r="G27">
+        <v>9.171863421534285</v>
+      </c>
+      <c r="H27">
+        <v>-8.378042913433744</v>
+      </c>
+      <c r="I27">
+        <v>-0.6683429869094382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.3052209078313319</v>
+      </c>
+      <c r="C28">
+        <v>-0.04690201748056927</v>
+      </c>
+      <c r="D28">
+        <v>0.6594387888791253</v>
+      </c>
+      <c r="E28">
+        <v>2.350872694477139</v>
+      </c>
+      <c r="F28">
+        <v>9.193302072250027</v>
+      </c>
+      <c r="G28">
+        <v>-8.358096204043417</v>
+      </c>
+      <c r="H28">
+        <v>-0.6490043354755446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.2037521027456684</v>
+      </c>
+      <c r="C29">
+        <v>0.5642710581134855</v>
+      </c>
+      <c r="D29">
+        <v>2.296445563811207</v>
+      </c>
+      <c r="E29">
+        <v>9.156748084838261</v>
+      </c>
+      <c r="F29">
+        <v>-8.38576139252662</v>
+      </c>
+      <c r="G29">
+        <v>-0.6724114751474837</v>
+      </c>
+      <c r="H29">
+        <v>0.9124466247161374</v>
+      </c>
+      <c r="I29">
+        <v>-2.052887140560817</v>
+      </c>
+      <c r="J29">
+        <v>0.2116117104903729</v>
+      </c>
+      <c r="K29">
+        <v>-0.2393130690951168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.5154074445011286</v>
+      </c>
+      <c r="C30">
+        <v>2.268676713534536</v>
+      </c>
+      <c r="D30">
+        <v>9.13952823980077</v>
+      </c>
+      <c r="E30">
+        <v>-8.397856508480213</v>
+      </c>
+      <c r="F30">
+        <v>-0.6819956026315825</v>
+      </c>
+      <c r="G30">
+        <v>0.9040896938991861</v>
+      </c>
+      <c r="H30">
+        <v>-2.060643857958923</v>
+      </c>
+      <c r="I30">
+        <v>0.2041484874144732</v>
+      </c>
+      <c r="J30">
+        <v>-0.2466327700103889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.219956787131591</v>
+      </c>
+      <c r="C31">
+        <v>9.105099971597772</v>
+      </c>
+      <c r="D31">
+        <v>-8.419520236579334</v>
+      </c>
+      <c r="E31">
+        <v>-0.6983358980328844</v>
+      </c>
+      <c r="F31">
+        <v>0.8904915159445659</v>
+      </c>
+      <c r="G31">
+        <v>-2.07292559449643</v>
+      </c>
+      <c r="H31">
+        <v>0.1925130480743557</v>
+      </c>
+      <c r="I31">
+        <v>-0.2579532017493174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>8.189548673647696</v>
+      </c>
+      <c r="C32">
+        <v>-8.974959151229303</v>
+      </c>
+      <c r="D32">
+        <v>-1.01725560823065</v>
+      </c>
+      <c r="E32">
+        <v>0.6812891314769711</v>
+      </c>
+      <c r="F32">
+        <v>-2.226143026305237</v>
+      </c>
+      <c r="G32">
+        <v>0.06705817846833073</v>
+      </c>
+      <c r="H32">
+        <v>-0.3695255935427733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-16.14018903381625</v>
+      </c>
+      <c r="C33">
+        <v>-6.791910405777589</v>
+      </c>
+      <c r="D33">
+        <v>-3.960768829455048</v>
+      </c>
+      <c r="E33">
+        <v>-5.976670854937382</v>
+      </c>
+      <c r="F33">
+        <v>-2.989026990346052</v>
+      </c>
+      <c r="G33">
+        <v>-2.889230364707919</v>
+      </c>
+      <c r="H33">
+        <v>-2.610106546763337</v>
+      </c>
+      <c r="I33">
+        <v>-1.76447406392936</v>
+      </c>
+      <c r="J33">
+        <v>-1.663120324238024</v>
+      </c>
+      <c r="K33">
+        <v>-0.8349890726314544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-5.111729259208365</v>
+      </c>
+      <c r="C34">
+        <v>3.455275933053657</v>
+      </c>
+      <c r="D34">
+        <v>-3.728614538712288</v>
+      </c>
+      <c r="E34">
+        <v>0.9923340248431218</v>
+      </c>
+      <c r="F34">
+        <v>-0.9110484627979438</v>
+      </c>
+      <c r="G34">
+        <v>-0.1981003006930162</v>
+      </c>
+      <c r="H34">
+        <v>-0.1744636854283967</v>
+      </c>
+      <c r="I34">
+        <v>-0.02054777792822543</v>
+      </c>
+      <c r="J34">
+        <v>0.4483335670758678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-0.2719305936643379</v>
+      </c>
+      <c r="C35">
+        <v>-1.865743883948665</v>
+      </c>
+      <c r="D35">
+        <v>0.2314251006721421</v>
+      </c>
+      <c r="E35">
+        <v>-0.3608174671756919</v>
+      </c>
+      <c r="F35">
+        <v>-0.4453535416162557</v>
+      </c>
+      <c r="G35">
+        <v>0.08612045519262451</v>
+      </c>
+      <c r="H35">
+        <v>-0.06432879815791362</v>
+      </c>
+      <c r="I35">
+        <v>0.580021064545069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-1.457511430326895</v>
+      </c>
+      <c r="C36">
+        <v>0.4830481445585361</v>
+      </c>
+      <c r="D36">
+        <v>-0.4427235209988271</v>
+      </c>
+      <c r="E36">
+        <v>-0.3702614922349701</v>
+      </c>
+      <c r="F36">
+        <v>0.1920276157063483</v>
+      </c>
+      <c r="G36">
+        <v>-0.005912151999258208</v>
+      </c>
+      <c r="H36">
+        <v>0.6464597483751605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0.377548932709721</v>
+      </c>
+      <c r="C37">
+        <v>-0.568828804964185</v>
+      </c>
+      <c r="D37">
+        <v>-0.2020134236017385</v>
+      </c>
+      <c r="E37">
+        <v>0.2526917083102306</v>
+      </c>
+      <c r="F37">
+        <v>0.005220687375374677</v>
+      </c>
+      <c r="G37">
+        <v>0.709322499702091</v>
+      </c>
+      <c r="H37">
+        <v>0.8372749959213646</v>
+      </c>
+      <c r="I37">
+        <v>0.4220547482687358</v>
+      </c>
+      <c r="J37">
+        <v>0.35197537525307</v>
+      </c>
+      <c r="K37">
+        <v>0.6305200013052115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.173269424811924</v>
+      </c>
+      <c r="C38">
+        <v>-0.2662168009564319</v>
+      </c>
+      <c r="D38">
+        <v>0.5442390163674474</v>
+      </c>
+      <c r="E38">
+        <v>-0.03248618871055892</v>
+      </c>
+      <c r="F38">
+        <v>0.70073847962863</v>
+      </c>
+      <c r="G38">
+        <v>0.9210160735187328</v>
+      </c>
+      <c r="H38">
+        <v>0.4568818931967809</v>
+      </c>
+      <c r="I38">
+        <v>0.378539758305367</v>
+      </c>
+      <c r="J38">
+        <v>0.6760188420518104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-0.3538576297953431</v>
+      </c>
+      <c r="C39">
+        <v>0.4918198143377789</v>
+      </c>
+      <c r="D39">
+        <v>0.02616020827444671</v>
+      </c>
+      <c r="E39">
+        <v>0.7056676249657313</v>
+      </c>
+      <c r="F39">
+        <v>0.9099227904698376</v>
+      </c>
+      <c r="G39">
+        <v>0.4696485924218674</v>
+      </c>
+      <c r="H39">
+        <v>0.3872693173527261</v>
+      </c>
+      <c r="I39">
+        <v>0.6785207862006621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.5142477939707875</v>
+      </c>
+      <c r="C40">
+        <v>0.02876374783689539</v>
+      </c>
+      <c r="D40">
+        <v>0.683599939311716</v>
+      </c>
+      <c r="E40">
+        <v>0.9039408101654827</v>
+      </c>
+      <c r="F40">
+        <v>0.4643053422394562</v>
+      </c>
+      <c r="G40">
+        <v>0.3769007839823598</v>
+      </c>
+      <c r="H40">
+        <v>0.6700434640770384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0.05018831929411549</v>
+      </c>
+      <c r="C41">
+        <v>0.8037777881109285</v>
+      </c>
+      <c r="D41">
+        <v>0.8147464657516995</v>
+      </c>
+      <c r="E41">
+        <v>0.4345783383908784</v>
+      </c>
+      <c r="F41">
+        <v>0.3855269040122699</v>
+      </c>
+      <c r="G41">
+        <v>0.6441032906516032</v>
+      </c>
+      <c r="H41">
+        <v>0.4725811863294772</v>
+      </c>
+      <c r="I41">
+        <v>0.631351887111854</v>
+      </c>
+      <c r="J41">
+        <v>0.3514560234789169</v>
+      </c>
+      <c r="K41">
+        <v>0.1878533956106533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.761457155790539</v>
+      </c>
+      <c r="C42">
+        <v>0.7855419918959663</v>
+      </c>
+      <c r="D42">
+        <v>0.4315577385859573</v>
+      </c>
+      <c r="E42">
+        <v>0.3666656204007895</v>
+      </c>
+      <c r="F42">
+        <v>0.623772159586399</v>
+      </c>
+      <c r="G42">
+        <v>0.4580510308952294</v>
+      </c>
+      <c r="H42">
+        <v>0.6147108416195859</v>
+      </c>
+      <c r="I42">
+        <v>0.3338721780501667</v>
+      </c>
+      <c r="J42">
+        <v>0.1713795120806105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>1.125739732513876</v>
+      </c>
+      <c r="C43">
+        <v>0.5069288003698943</v>
+      </c>
+      <c r="D43">
+        <v>0.1755723340877904</v>
+      </c>
+      <c r="E43">
+        <v>0.6484660721731321</v>
+      </c>
+      <c r="F43">
+        <v>0.4674304344515254</v>
+      </c>
+      <c r="G43">
+        <v>0.5599000430081948</v>
+      </c>
+      <c r="H43">
+        <v>0.3149780871614969</v>
+      </c>
+      <c r="I43">
+        <v>0.1565155112655648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.9576236723601449</v>
+      </c>
+      <c r="C44">
+        <v>0.2226830363001488</v>
+      </c>
+      <c r="D44">
+        <v>0.4081828413823239</v>
+      </c>
+      <c r="E44">
+        <v>0.5033755155173882</v>
+      </c>
+      <c r="F44">
+        <v>0.557849285568602</v>
+      </c>
+      <c r="G44">
+        <v>0.2384098477254667</v>
+      </c>
+      <c r="H44">
+        <v>0.1291161168902814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.5350086232236873</v>
+      </c>
+      <c r="C45">
+        <v>0.5414715811178482</v>
+      </c>
+      <c r="D45">
+        <v>0.3242970937011966</v>
+      </c>
+      <c r="E45">
+        <v>0.5860435243391693</v>
+      </c>
+      <c r="F45">
+        <v>0.2744351589178602</v>
+      </c>
+      <c r="G45">
+        <v>0.09157454668606776</v>
+      </c>
+      <c r="H45">
+        <v>-0.01239555844019874</v>
+      </c>
+      <c r="I45">
+        <v>0.5011245128056051</v>
+      </c>
+      <c r="J45">
+        <v>0.2858677898194339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.7770620722256893</v>
+      </c>
+      <c r="C46">
+        <v>0.4089758345755062</v>
+      </c>
+      <c r="D46">
+        <v>0.4404431577054521</v>
+      </c>
+      <c r="E46">
+        <v>0.2843889017771028</v>
+      </c>
+      <c r="F46">
+        <v>0.1069397163856127</v>
+      </c>
+      <c r="G46">
+        <v>-0.05124389339762181</v>
+      </c>
+      <c r="H46">
+        <v>0.4852787037784192</v>
+      </c>
+      <c r="I46">
+        <v>0.2775335613519331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.720000021056889</v>
+      </c>
+      <c r="C47">
+        <v>0.5575319321166473</v>
+      </c>
+      <c r="D47">
+        <v>0.121924760327536</v>
+      </c>
+      <c r="E47">
+        <v>0.1358986668508143</v>
+      </c>
+      <c r="F47">
+        <v>-0.01550102094271821</v>
+      </c>
+      <c r="G47">
+        <v>0.4539510573947921</v>
+      </c>
+      <c r="H47">
+        <v>0.2743085116504074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.8043571095207618</v>
+      </c>
+      <c r="C48">
+        <v>0.1395806278654255</v>
+      </c>
+      <c r="D48">
+        <v>0.04127642773981979</v>
+      </c>
+      <c r="E48">
+        <v>0.01671636730576187</v>
+      </c>
+      <c r="F48">
+        <v>0.4663391832225094</v>
+      </c>
+      <c r="G48">
+        <v>0.2534447081011285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0.3792569872816374</v>
+      </c>
+      <c r="C49">
+        <v>0.1263006712090333</v>
+      </c>
+      <c r="D49">
+        <v>-0.09976821105225223</v>
+      </c>
+      <c r="E49">
+        <v>0.4814444548743619</v>
+      </c>
+      <c r="F49">
+        <v>0.2766837437271186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.2911607482431205</v>
+      </c>
+      <c r="C50">
+        <v>-0.08623093880433602</v>
+      </c>
+      <c r="D50">
+        <v>0.4184715358843989</v>
+      </c>
+      <c r="E50">
+        <v>0.2867219094086165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>0.167618103061072</v>
+      </c>
+      <c r="C51">
+        <v>0.5177895860664353</v>
+      </c>
+      <c r="D51">
+        <v>0.1751453671933744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.5618492773058843</v>
+      </c>
+      <c r="C52">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>0.4328090033804217</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_latest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>0.4328090033804217</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
